--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T07:08:23+00:00</t>
+    <t>2024-09-10T07:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T07:10:32+00:00</t>
+    <t>2024-09-16T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T10:05:07+00:00</t>
+    <t>2024-09-16T12:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T12:33:31+00:00</t>
+    <t>2024-09-16T13:17:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T13:17:54+00:00</t>
+    <t>2024-09-17T09:21:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T09:21:18+00:00</t>
+    <t>2024-09-17T09:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T09:21:33+00:00</t>
+    <t>2024-09-17T09:22:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T09:22:13+00:00</t>
+    <t>2024-09-17T09:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
+++ b/Editorial/ig/PN13-FHIR-prescmed-practitioner-id-seule-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T09:47:38+00:00</t>
+    <t>2024-09-17T16:32:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
